--- a/curation/draft/package12/R12_BC_SDTM_QRS_6MWT.xlsx
+++ b/curation/draft/package12/R12_BC_SDTM_QRS_6MWT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\package12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53D2E4E-A3A1-4FE9-9901-56133E73B462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E26937-6DBE-4383-898C-73FC483B23A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CB90682E-B5D2-4F3C-A30B-8167A140F2EB}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="SDTM_6MWT" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BC_6MWT!$A$1:$Q$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BC_6MWT!$A$1:$Q$37</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SDTM_6MWT!$A$1:$AP$61</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1794" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1921" uniqueCount="168">
   <si>
     <t>package_date</t>
   </si>
@@ -532,14 +532,26 @@
     <t>SIXMW1-Distance at 6 Minutes</t>
   </si>
   <si>
-    <t>Nominal</t>
+    <t>C82525</t>
+  </si>
+  <si>
+    <t>Test Occurrence</t>
+  </si>
+  <si>
+    <t>N;Y</t>
+  </si>
+  <si>
+    <t>C25372</t>
+  </si>
+  <si>
+    <t>Category</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -599,6 +611,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9.5"/>
+      <color rgb="FF0000FF"/>
+      <name val="Albany AMT"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -688,16 +707,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -726,9 +742,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -738,7 +751,6 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -746,6 +758,39 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1061,31 +1106,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18030E2E-FE19-40F7-9321-415FFA0E6A09}">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q7" sqref="Q7"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="41" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="74" customWidth="1"/>
-    <col min="7" max="7" width="44.28515625" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" customWidth="1"/>
-    <col min="9" max="9" width="55.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.28515625" customWidth="1"/>
-    <col min="11" max="11" width="6.140625" customWidth="1"/>
-    <col min="12" max="12" width="3.85546875" customWidth="1"/>
-    <col min="15" max="15" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" customWidth="1"/>
-    <col min="17" max="17" width="44.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14" style="7" customWidth="1"/>
+    <col min="2" max="2" width="41" style="7" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="7"/>
+    <col min="4" max="4" width="11.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="74" style="7" customWidth="1"/>
+    <col min="7" max="7" width="44.28515625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="72.140625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="6.140625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="3.85546875" style="7" customWidth="1"/>
+    <col min="13" max="14" width="9.140625" style="7"/>
+    <col min="15" max="15" width="32.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" style="7" customWidth="1"/>
+    <col min="17" max="17" width="44.7109375" style="7" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="22" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1138,1228 +1187,1644 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="20"/>
+      <c r="F2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="10"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="Q2" s="24"/>
+    </row>
+    <row r="3" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="Q3" s="10"/>
-    </row>
-    <row r="4" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="M3" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="N3" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="30" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q4" s="3"/>
+    </row>
+    <row r="5" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q6" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C7" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D7" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="8" t="s">
+      <c r="E7" s="20"/>
+      <c r="F7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I4" s="8" t="s">
+      <c r="I7" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4" t="s">
+    </row>
+    <row r="8" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="24"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q9" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="10" t="s">
+      <c r="Q10" s="24" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C11" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D11" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M11" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="N11" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="O11" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="P11" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q11" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="10"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="11" t="s">
+      <c r="Q13" s="24"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="G14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="M6" s="4" t="s">
+      <c r="I14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="N14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="P14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q6" s="10" t="s">
+      <c r="Q14" s="24" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="11" t="s">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="G15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="I15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M15" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="N15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O15" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="Q7" s="10" t="s">
+      <c r="Q15" s="24" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="11" t="s">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F16" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="G16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="M8" s="4" t="s">
+      <c r="I16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M16" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="N16" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="O16" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="P16" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q16" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M17" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="N17" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="O17" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="P17" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="11" t="s">
+    <row r="18" spans="1:17" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F18" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="G18" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="H18" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="I18" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="M18" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="N18" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O18" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P18" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="10"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="11" t="s">
+      <c r="Q18" s="28"/>
+    </row>
+    <row r="19" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F19" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="G19" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="H19" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="M10" s="4" t="s">
+      <c r="I19" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="M19" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="N19" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="O10" s="4" t="s">
+      <c r="O19" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="P19" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="Q10" s="10" t="s">
+      <c r="Q19" s="28" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="11" t="s">
+    <row r="20" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F20" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="G20" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="H20" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="I20" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="M20" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="N11" s="5" t="s">
+      <c r="N20" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O20" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P20" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="Q11" s="10" t="s">
+      <c r="Q20" s="28" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="11" t="s">
+    <row r="21" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F21" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="G21" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="H21" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="M12" s="4" t="s">
+      <c r="I21" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="M21" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="N21" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="O21" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="P21" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q21" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="M22" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="N12" s="5" t="s">
+      <c r="N22" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="O12" s="4" t="s">
+      <c r="O22" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="P12" s="4" t="s">
+      <c r="P22" s="19" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="E13" s="20" t="s">
+    <row r="23" spans="1:17" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F23" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="H13" s="18" t="s">
+      <c r="G23" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="H23" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="M13" s="18" t="s">
+      <c r="I23" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="M23" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="N13" s="22" t="s">
+      <c r="N23" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="O13" s="18" t="s">
+      <c r="O23" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="P13" s="18" t="s">
+      <c r="P23" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="23"/>
-    </row>
-    <row r="14" spans="1:17" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="E14" s="20" t="s">
+      <c r="Q23" s="28"/>
+    </row>
+    <row r="24" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F24" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="H14" s="18" t="s">
+      <c r="G24" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="H24" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="M14" s="24" t="s">
+      <c r="I24" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="M24" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="N14" s="22" t="s">
+      <c r="N24" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="O14" s="24" t="s">
+      <c r="O24" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="P14" s="24" t="s">
+      <c r="P24" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="Q14" s="23" t="s">
+      <c r="Q24" s="28" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="E15" s="20" t="s">
+    <row r="25" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F25" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="H15" s="18" t="s">
+      <c r="G25" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="H25" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="M15" s="18" t="s">
+      <c r="I25" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="M25" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="N15" s="22" t="s">
+      <c r="N25" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="O15" s="18" t="s">
+      <c r="O25" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="P15" s="18" t="s">
+      <c r="P25" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="Q15" s="23" t="s">
+      <c r="Q25" s="28" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="E16" s="20" t="s">
+    <row r="26" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F26" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="H16" s="18" t="s">
+      <c r="G26" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="H26" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="M16" s="24" t="s">
+      <c r="I26" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="M26" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="N26" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="O26" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="P26" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q26" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="M27" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="N16" s="22" t="s">
+      <c r="N27" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="O16" s="24" t="s">
+      <c r="O27" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="P16" s="24" t="s">
+      <c r="P27" s="19" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="E17" s="20" t="s">
+    <row r="28" spans="1:17" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F28" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="H17" s="18" t="s">
+      <c r="G28" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="H28" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="M17" s="18" t="s">
+      <c r="I28" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="M28" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="N17" s="22" t="s">
+      <c r="N28" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="O17" s="18" t="s">
+      <c r="O28" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="P17" s="18" t="s">
+      <c r="P28" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="23"/>
-    </row>
-    <row r="18" spans="1:17" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="E18" s="20" t="s">
+      <c r="Q28" s="28"/>
+    </row>
+    <row r="29" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F29" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="H18" s="18" t="s">
+      <c r="G29" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="H29" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I18" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="M18" s="24" t="s">
+      <c r="I29" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="M29" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="N18" s="22" t="s">
+      <c r="N29" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="O18" s="24" t="s">
+      <c r="O29" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="P18" s="24" t="s">
+      <c r="P29" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="Q18" s="23" t="s">
+      <c r="Q29" s="28" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="E19" s="20" t="s">
+    <row r="30" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F30" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="H19" s="18" t="s">
+      <c r="G30" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="H30" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I19" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="M19" s="18" t="s">
+      <c r="I30" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="M30" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="N19" s="22" t="s">
+      <c r="N30" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="O19" s="18" t="s">
+      <c r="O30" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="P19" s="18" t="s">
+      <c r="P30" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="Q19" s="23" t="s">
+      <c r="Q30" s="28" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="E20" s="20" t="s">
+    <row r="31" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="E31" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F31" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="H20" s="18" t="s">
+      <c r="G31" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="H31" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I20" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="M20" s="24" t="s">
+      <c r="I31" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="M31" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="N31" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="O31" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="P31" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q31" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="M32" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="N20" s="22" t="s">
+      <c r="N32" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="O20" s="24" t="s">
+      <c r="O32" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="P20" s="24" t="s">
+      <c r="P32" s="19" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E21" s="20" t="s">
+    <row r="33" spans="1:17" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F33" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="H21" s="18" t="s">
+      <c r="G33" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="H33" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="M21" s="18" t="s">
+      <c r="I33" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="M33" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="N21" s="22" t="s">
+      <c r="N33" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="O21" s="18" t="s">
+      <c r="O33" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="P21" s="18" t="s">
+      <c r="P33" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="23"/>
-    </row>
-    <row r="22" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E22" s="20" t="s">
+      <c r="Q33" s="28"/>
+    </row>
+    <row r="34" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="E34" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F34" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G22" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="H22" s="18" t="s">
+      <c r="G34" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="H34" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="M22" s="24" t="s">
+      <c r="I34" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="M34" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="N22" s="22" t="s">
+      <c r="N34" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="O22" s="24" t="s">
+      <c r="O34" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="P22" s="24" t="s">
+      <c r="P34" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="Q22" s="23" t="s">
+      <c r="Q34" s="28" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E23" s="20" t="s">
+    <row r="35" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="E35" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F35" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="H23" s="18" t="s">
+      <c r="G35" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="H35" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I23" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="M23" s="18" t="s">
+      <c r="I35" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="M35" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="N23" s="22" t="s">
+      <c r="N35" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="O23" s="18" t="s">
+      <c r="O35" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="P23" s="18" t="s">
+      <c r="P35" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="Q23" s="23" t="s">
+      <c r="Q35" s="28" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E24" s="20" t="s">
+    <row r="36" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="E36" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F36" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G24" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="H24" s="18" t="s">
+      <c r="G36" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="H36" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I24" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="M24" s="24" t="s">
+      <c r="I36" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="M36" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="N36" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="O36" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="P36" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q36" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="M37" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="N24" s="22" t="s">
+      <c r="N37" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="O24" s="24" t="s">
+      <c r="O37" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="P24" s="24" t="s">
+      <c r="P37" s="19" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="H25" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="M25" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="N25" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="O25" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="P25" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q25" s="23"/>
-    </row>
-    <row r="26" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="H26" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="M26" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="N26" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="O26" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="P26" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q26" s="23" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="H27" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I27" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="M27" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="N27" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="O27" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="P27" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q27" s="23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="H28" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I28" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="M28" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="N28" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="O28" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="P28" s="24" t="s">
-        <v>117</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:Q28" xr:uid="{18030E2E-FE19-40F7-9321-415FFA0E6A09}"/>
+  <autoFilter ref="A1:Q37" xr:uid="{18030E2E-FE19-40F7-9321-415FFA0E6A09}"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115789" xr:uid="{361C984A-1346-4498-90C2-F91FBE862CFE}"/>
-    <hyperlink ref="D3" r:id="rId2" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115789" xr:uid="{B7B62E41-F262-4F68-8AE1-DFAE327D1D76}"/>
-    <hyperlink ref="C4" r:id="rId3" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115409" xr:uid="{AE752E6B-93FF-4D2A-98B4-2EFF5929DF81}"/>
-    <hyperlink ref="D4" r:id="rId4" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115409" xr:uid="{41FDDAC0-987E-4BA5-A5E5-67D16DB5C212}"/>
-    <hyperlink ref="C5" r:id="rId5" xr:uid="{26FCB24D-F160-4DFA-998A-6AC8868A6D76}"/>
-    <hyperlink ref="D5" r:id="rId6" xr:uid="{94205194-DF43-4368-B084-00CB03961DCC}"/>
-    <hyperlink ref="E5" r:id="rId7" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115409" xr:uid="{1B464ED8-9769-4D9F-9E19-835285C1033B}"/>
-    <hyperlink ref="C10" r:id="rId8" xr:uid="{AD1457B9-6D49-479F-861C-770FE06D857F}"/>
-    <hyperlink ref="D10" r:id="rId9" xr:uid="{882DCA0A-44A9-4911-8EF1-DCAF9D7CA59A}"/>
-    <hyperlink ref="E10" r:id="rId10" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115409" xr:uid="{55A266B5-FEC3-4DB1-AB78-336B0F18590D}"/>
-    <hyperlink ref="C6" r:id="rId11" xr:uid="{375A9B66-7AB1-4C0A-BBD7-A0555446B22E}"/>
-    <hyperlink ref="C7" r:id="rId12" xr:uid="{55EB44F8-7A7E-40D9-BA8E-CB612778D5A9}"/>
-    <hyperlink ref="D6" r:id="rId13" xr:uid="{A836E748-3C8C-4337-8126-95366C47100D}"/>
-    <hyperlink ref="D7" r:id="rId14" xr:uid="{271DC9C3-3967-49F3-8AA2-2F03969C901B}"/>
-    <hyperlink ref="E6" r:id="rId15" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115409" xr:uid="{6D8D9CD6-EAF3-439F-A348-B104B99CE3B5}"/>
-    <hyperlink ref="E7" r:id="rId16" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115409" xr:uid="{94B1A947-5DD7-4F38-B687-78FCA7EDB27D}"/>
-    <hyperlink ref="N5" r:id="rId17" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C93300" xr:uid="{E7EE7498-3494-451A-A1D4-39251D780C25}"/>
-    <hyperlink ref="N7" r:id="rId18" display="C115801" xr:uid="{966305D3-B345-48E8-AB54-7B5DACC37AEB}"/>
-    <hyperlink ref="N9" r:id="rId19" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C93300" xr:uid="{7714661B-896C-4767-8452-87D819BF6AD7}"/>
-    <hyperlink ref="N11" r:id="rId20" display="C115801" xr:uid="{0E8E96F8-F6F6-433C-8783-D5F26CD5BC06}"/>
-    <hyperlink ref="C9" r:id="rId21" xr:uid="{396C78D5-4AB5-42DB-97B1-7B3AFF4F3BF3}"/>
-    <hyperlink ref="D9" r:id="rId22" xr:uid="{3294CF78-4D7A-4DBC-8262-9B9F37AA2E15}"/>
-    <hyperlink ref="E9" r:id="rId23" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115409" xr:uid="{C2D8D515-FC74-47B2-A5DD-CFCEDF55ED19}"/>
-    <hyperlink ref="C11" r:id="rId24" xr:uid="{D05801B3-AE31-4C22-A62D-AF9C7388C576}"/>
-    <hyperlink ref="D11" r:id="rId25" xr:uid="{48A9007E-883C-466F-AFBA-AA274DFE301E}"/>
-    <hyperlink ref="E11" r:id="rId26" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115409" xr:uid="{CCF0B0FE-69BB-4001-AC51-8DCC9FC5399D}"/>
-    <hyperlink ref="N12" r:id="rId27" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C82515" xr:uid="{8DE62193-1CEC-4CF8-90E7-107C98B537B6}"/>
-    <hyperlink ref="C12" r:id="rId28" xr:uid="{52C1D0F3-B5A0-4388-B227-2DE282008C41}"/>
-    <hyperlink ref="D12" r:id="rId29" xr:uid="{F5A50318-C3CA-4CD6-B965-8FC8B7766302}"/>
-    <hyperlink ref="E12" r:id="rId30" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115409" xr:uid="{884F6AEA-7671-4DAC-A039-ADE95948FDB2}"/>
-    <hyperlink ref="N8" r:id="rId31" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C82515" xr:uid="{65353DA1-5119-4E65-96D6-167297892EB4}"/>
-    <hyperlink ref="C8" r:id="rId32" xr:uid="{0E9861D9-7EB8-4D64-BA83-7955E9B1704C}"/>
-    <hyperlink ref="D8" r:id="rId33" xr:uid="{F4E5CFEF-D9DE-4B79-B18E-6DDC413C5E46}"/>
-    <hyperlink ref="E8" r:id="rId34" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115409" xr:uid="{9DCFEADA-65C4-4EBD-87DA-DDE4325BCABF}"/>
-    <hyperlink ref="E14" r:id="rId35" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115409" xr:uid="{6433EC8E-ADE7-499F-AE9E-99C8EFBDDC4E}"/>
-    <hyperlink ref="N13" r:id="rId36" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C93300" xr:uid="{10382004-EB81-40A3-A6C5-01D327C5AD92}"/>
-    <hyperlink ref="N15" r:id="rId37" display="C115801" xr:uid="{F76C5EDC-3183-44A8-9A46-50B6F5C9487F}"/>
-    <hyperlink ref="E13" r:id="rId38" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115409" xr:uid="{3C67EBB9-3D47-4891-A265-9FDAB1FFE579}"/>
-    <hyperlink ref="E15" r:id="rId39" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115409" xr:uid="{8545C801-8718-43F6-801D-C7B114215AC1}"/>
-    <hyperlink ref="N16" r:id="rId40" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C82515" xr:uid="{B53DC5EB-F6AA-495E-9D9B-06A9F490DD58}"/>
-    <hyperlink ref="E16" r:id="rId41" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115409" xr:uid="{86AC0CA6-EF4F-47AB-AB78-C61D208417D2}"/>
-    <hyperlink ref="E18" r:id="rId42" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115409" xr:uid="{762FDF06-B14E-41D9-B8AA-4ED892AD7508}"/>
-    <hyperlink ref="N17" r:id="rId43" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C93300" xr:uid="{2036995A-8217-4ED4-8A95-24B65FD3709B}"/>
-    <hyperlink ref="N19" r:id="rId44" display="C115801" xr:uid="{493C61CB-C03E-412D-91CE-4C61AEAF76C1}"/>
-    <hyperlink ref="E17" r:id="rId45" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115409" xr:uid="{B9CE4595-A09B-49C2-B215-72330AB57472}"/>
-    <hyperlink ref="E19" r:id="rId46" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115409" xr:uid="{BF810B10-3AB9-4CEB-BE1D-866F30EED812}"/>
-    <hyperlink ref="N20" r:id="rId47" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C82515" xr:uid="{0C40CDB1-EB4D-40E9-9CDF-25E474B3549B}"/>
-    <hyperlink ref="E20" r:id="rId48" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115409" xr:uid="{23058700-1126-4F6F-A863-97CAF157FF46}"/>
-    <hyperlink ref="E22" r:id="rId49" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115409" xr:uid="{9709EE12-5393-4F97-AF9D-7620D4CFCF7B}"/>
-    <hyperlink ref="N21" r:id="rId50" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C93300" xr:uid="{C30C81C2-942B-4DBD-8D4B-233F326C6D17}"/>
-    <hyperlink ref="N23" r:id="rId51" display="C115801" xr:uid="{D92C76DE-AED4-4A29-8897-97A95B42205D}"/>
-    <hyperlink ref="C21" r:id="rId52" xr:uid="{F0E20353-3808-4B97-B360-33A40079C92B}"/>
-    <hyperlink ref="E21" r:id="rId53" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115409" xr:uid="{2F3CD50A-2F9E-4097-A124-E4DB96A1C678}"/>
-    <hyperlink ref="E23" r:id="rId54" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115409" xr:uid="{92E869F0-0E32-4971-B926-7E634DC07D7D}"/>
-    <hyperlink ref="N24" r:id="rId55" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C82515" xr:uid="{73F3017C-132E-40EF-8BAF-29833EA72287}"/>
-    <hyperlink ref="E24" r:id="rId56" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115409" xr:uid="{F73457DB-7B19-4F04-A39A-65B45357DC95}"/>
-    <hyperlink ref="E26" r:id="rId57" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115409" xr:uid="{E7CDCA69-7F9A-4DA1-BD3E-84C0151DB1D0}"/>
-    <hyperlink ref="N25" r:id="rId58" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C93300" xr:uid="{D21E990D-5CBB-4678-9C39-D51BEBB143EE}"/>
-    <hyperlink ref="N27" r:id="rId59" display="C115801" xr:uid="{2A468153-D347-4C8B-BD05-98AAC7B66913}"/>
-    <hyperlink ref="E25" r:id="rId60" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115409" xr:uid="{C2829E57-C230-4CDF-903C-BE6D36F3D43C}"/>
-    <hyperlink ref="E27" r:id="rId61" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115409" xr:uid="{D1A6B0A7-26F4-491A-91A4-04612AF7F53E}"/>
-    <hyperlink ref="N28" r:id="rId62" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C82515" xr:uid="{DA1FDDA2-661D-4D76-ADBA-659198998077}"/>
-    <hyperlink ref="E28" r:id="rId63" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115409" xr:uid="{05CF1DE3-A4C4-44A2-B672-77B3052E9BCB}"/>
-    <hyperlink ref="C17" r:id="rId64" xr:uid="{4142B31A-4B36-4266-B27E-814FF0CB9DCB}"/>
-    <hyperlink ref="C25" r:id="rId65" display="C115804" xr:uid="{8CE380B2-BE29-4565-8D05-A3E8CBEBB4A7}"/>
-    <hyperlink ref="C13" r:id="rId66" xr:uid="{2B531F45-9195-4782-8038-911D7005F075}"/>
-    <hyperlink ref="D13" r:id="rId67" xr:uid="{7E0F4B3D-FF52-4386-B79A-233AF36BA8D4}"/>
-    <hyperlink ref="C14" r:id="rId68" xr:uid="{5C78277D-94CF-4278-AD3C-294E3F66C3B4}"/>
-    <hyperlink ref="D14" r:id="rId69" xr:uid="{DBC341C8-CA93-46DB-9CC1-F7A9072A8B84}"/>
-    <hyperlink ref="C15" r:id="rId70" xr:uid="{FA0C1D2F-954D-408E-AA2D-331AA747ECD6}"/>
-    <hyperlink ref="D15" r:id="rId71" xr:uid="{4901C441-9C82-4B8A-AF25-2608359AA8E7}"/>
-    <hyperlink ref="C16" r:id="rId72" xr:uid="{5F660024-92E1-4B85-AF04-604DFE3D89F1}"/>
-    <hyperlink ref="D16" r:id="rId73" xr:uid="{5069CA9E-039A-4552-B075-9955FDD5E70E}"/>
-    <hyperlink ref="D17" r:id="rId74" xr:uid="{5E34D92F-DFAF-48AF-81CF-9D7EAC736C9A}"/>
-    <hyperlink ref="C18" r:id="rId75" xr:uid="{42826C2B-B15F-44D4-91AC-3C3574673F6E}"/>
-    <hyperlink ref="C19" r:id="rId76" xr:uid="{039C0ECE-2E84-433D-9DD3-3D2AB177FA4D}"/>
-    <hyperlink ref="C20" r:id="rId77" xr:uid="{ABBFA6E8-B038-409E-82E9-4B260183A62E}"/>
-    <hyperlink ref="D18" r:id="rId78" xr:uid="{355302CF-374E-4623-AC78-E77C51D04956}"/>
-    <hyperlink ref="D19" r:id="rId79" xr:uid="{5AEC0646-7F7F-4009-B968-5711EFB138AE}"/>
-    <hyperlink ref="D20" r:id="rId80" xr:uid="{34B16AEA-7454-4DCB-B213-C255F458791C}"/>
-    <hyperlink ref="D21" r:id="rId81" xr:uid="{63365BED-3B11-41CA-BB05-44B69EE79572}"/>
-    <hyperlink ref="C22" r:id="rId82" xr:uid="{9D04A2C6-CB69-4202-8011-391C77DAFD84}"/>
-    <hyperlink ref="D22" r:id="rId83" xr:uid="{11F26EB3-5659-430F-B3DA-A5B4E83BDEFD}"/>
-    <hyperlink ref="C23" r:id="rId84" xr:uid="{3FA8BA40-E267-41DA-B985-18BBE67B3286}"/>
-    <hyperlink ref="D23" r:id="rId85" xr:uid="{87A18AB3-24E1-4395-AC90-C384F99BC12F}"/>
-    <hyperlink ref="C24" r:id="rId86" xr:uid="{45A0177E-F429-4F23-8DA7-68BD902DF13C}"/>
-    <hyperlink ref="D24" r:id="rId87" xr:uid="{6707A824-8921-4259-86D6-2DF920FEBB39}"/>
-    <hyperlink ref="D25" r:id="rId88" display="C115804" xr:uid="{DE32EFDD-DDD2-417E-8695-58CF18B7E572}"/>
-    <hyperlink ref="C26" r:id="rId89" display="C115804" xr:uid="{938BA65B-6D2A-4426-A489-8108BDCA8776}"/>
-    <hyperlink ref="D26" r:id="rId90" display="C115804" xr:uid="{A7520F03-0CEA-4883-88F2-0D119295AF3B}"/>
-    <hyperlink ref="C27" r:id="rId91" display="C115804" xr:uid="{5635500F-665F-4F0B-9ABE-ACB25CF441E9}"/>
-    <hyperlink ref="D27" r:id="rId92" display="C115804" xr:uid="{227F1913-4036-43AC-9E5D-309C47B58DAD}"/>
-    <hyperlink ref="C28" r:id="rId93" display="C115804" xr:uid="{51370DE7-7CE0-4068-816C-4B408CCA5F3F}"/>
-    <hyperlink ref="D28" r:id="rId94" display="C115804" xr:uid="{5EA29D7F-F00D-4BB4-82BC-CA0B661F5377}"/>
-    <hyperlink ref="N4" r:id="rId95" display="C115801" xr:uid="{C9E1F834-8535-4D78-A1FD-DD7A0AF6177A}"/>
+    <hyperlink ref="C6" r:id="rId1" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115789" xr:uid="{361C984A-1346-4498-90C2-F91FBE862CFE}"/>
+    <hyperlink ref="D6" r:id="rId2" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115789" xr:uid="{B7B62E41-F262-4F68-8AE1-DFAE327D1D76}"/>
+    <hyperlink ref="C7" r:id="rId3" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115409" xr:uid="{AE752E6B-93FF-4D2A-98B4-2EFF5929DF81}"/>
+    <hyperlink ref="D7" r:id="rId4" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115409" xr:uid="{41FDDAC0-987E-4BA5-A5E5-67D16DB5C212}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{26FCB24D-F160-4DFA-998A-6AC8868A6D76}"/>
+    <hyperlink ref="D8" r:id="rId6" xr:uid="{94205194-DF43-4368-B084-00CB03961DCC}"/>
+    <hyperlink ref="E8" r:id="rId7" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115409" xr:uid="{1B464ED8-9769-4D9F-9E19-835285C1033B}"/>
+    <hyperlink ref="C14" r:id="rId8" xr:uid="{AD1457B9-6D49-479F-861C-770FE06D857F}"/>
+    <hyperlink ref="D14" r:id="rId9" xr:uid="{882DCA0A-44A9-4911-8EF1-DCAF9D7CA59A}"/>
+    <hyperlink ref="E14" r:id="rId10" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115409" xr:uid="{55A266B5-FEC3-4DB1-AB78-336B0F18590D}"/>
+    <hyperlink ref="C9" r:id="rId11" xr:uid="{375A9B66-7AB1-4C0A-BBD7-A0555446B22E}"/>
+    <hyperlink ref="C10" r:id="rId12" xr:uid="{55EB44F8-7A7E-40D9-BA8E-CB612778D5A9}"/>
+    <hyperlink ref="D9" r:id="rId13" xr:uid="{A836E748-3C8C-4337-8126-95366C47100D}"/>
+    <hyperlink ref="D10" r:id="rId14" xr:uid="{271DC9C3-3967-49F3-8AA2-2F03969C901B}"/>
+    <hyperlink ref="E9" r:id="rId15" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115409" xr:uid="{6D8D9CD6-EAF3-439F-A348-B104B99CE3B5}"/>
+    <hyperlink ref="E10" r:id="rId16" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115409" xr:uid="{94B1A947-5DD7-4F38-B687-78FCA7EDB27D}"/>
+    <hyperlink ref="N8" r:id="rId17" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C93300" xr:uid="{E7EE7498-3494-451A-A1D4-39251D780C25}"/>
+    <hyperlink ref="N10" r:id="rId18" display="C115801" xr:uid="{966305D3-B345-48E8-AB54-7B5DACC37AEB}"/>
+    <hyperlink ref="N13" r:id="rId19" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C93300" xr:uid="{7714661B-896C-4767-8452-87D819BF6AD7}"/>
+    <hyperlink ref="N15" r:id="rId20" display="C115801" xr:uid="{0E8E96F8-F6F6-433C-8783-D5F26CD5BC06}"/>
+    <hyperlink ref="C13" r:id="rId21" xr:uid="{396C78D5-4AB5-42DB-97B1-7B3AFF4F3BF3}"/>
+    <hyperlink ref="D13" r:id="rId22" xr:uid="{3294CF78-4D7A-4DBC-8262-9B9F37AA2E15}"/>
+    <hyperlink ref="E13" r:id="rId23" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115409" xr:uid="{C2D8D515-FC74-47B2-A5DD-CFCEDF55ED19}"/>
+    <hyperlink ref="C15" r:id="rId24" xr:uid="{D05801B3-AE31-4C22-A62D-AF9C7388C576}"/>
+    <hyperlink ref="D15" r:id="rId25" xr:uid="{48A9007E-883C-466F-AFBA-AA274DFE301E}"/>
+    <hyperlink ref="E15" r:id="rId26" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115409" xr:uid="{CCF0B0FE-69BB-4001-AC51-8DCC9FC5399D}"/>
+    <hyperlink ref="N17" r:id="rId27" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C82515" xr:uid="{8DE62193-1CEC-4CF8-90E7-107C98B537B6}"/>
+    <hyperlink ref="C17" r:id="rId28" xr:uid="{52C1D0F3-B5A0-4388-B227-2DE282008C41}"/>
+    <hyperlink ref="D17" r:id="rId29" xr:uid="{F5A50318-C3CA-4CD6-B965-8FC8B7766302}"/>
+    <hyperlink ref="E17" r:id="rId30" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115409" xr:uid="{884F6AEA-7671-4DAC-A039-ADE95948FDB2}"/>
+    <hyperlink ref="N12" r:id="rId31" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C82515" xr:uid="{65353DA1-5119-4E65-96D6-167297892EB4}"/>
+    <hyperlink ref="C12" r:id="rId32" xr:uid="{0E9861D9-7EB8-4D64-BA83-7955E9B1704C}"/>
+    <hyperlink ref="D12" r:id="rId33" xr:uid="{F4E5CFEF-D9DE-4B79-B18E-6DDC413C5E46}"/>
+    <hyperlink ref="E12" r:id="rId34" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115409" xr:uid="{9DCFEADA-65C4-4EBD-87DA-DDE4325BCABF}"/>
+    <hyperlink ref="E19" r:id="rId35" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115409" xr:uid="{6433EC8E-ADE7-499F-AE9E-99C8EFBDDC4E}"/>
+    <hyperlink ref="N18" r:id="rId36" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C93300" xr:uid="{10382004-EB81-40A3-A6C5-01D327C5AD92}"/>
+    <hyperlink ref="N20" r:id="rId37" display="C115801" xr:uid="{F76C5EDC-3183-44A8-9A46-50B6F5C9487F}"/>
+    <hyperlink ref="E18" r:id="rId38" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115409" xr:uid="{3C67EBB9-3D47-4891-A265-9FDAB1FFE579}"/>
+    <hyperlink ref="E20" r:id="rId39" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115409" xr:uid="{8545C801-8718-43F6-801D-C7B114215AC1}"/>
+    <hyperlink ref="N22" r:id="rId40" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C82515" xr:uid="{B53DC5EB-F6AA-495E-9D9B-06A9F490DD58}"/>
+    <hyperlink ref="E22" r:id="rId41" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115409" xr:uid="{86AC0CA6-EF4F-47AB-AB78-C61D208417D2}"/>
+    <hyperlink ref="E24" r:id="rId42" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115409" xr:uid="{762FDF06-B14E-41D9-B8AA-4ED892AD7508}"/>
+    <hyperlink ref="N23" r:id="rId43" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C93300" xr:uid="{2036995A-8217-4ED4-8A95-24B65FD3709B}"/>
+    <hyperlink ref="N25" r:id="rId44" display="C115801" xr:uid="{493C61CB-C03E-412D-91CE-4C61AEAF76C1}"/>
+    <hyperlink ref="E23" r:id="rId45" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115409" xr:uid="{B9CE4595-A09B-49C2-B215-72330AB57472}"/>
+    <hyperlink ref="E25" r:id="rId46" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115409" xr:uid="{BF810B10-3AB9-4CEB-BE1D-866F30EED812}"/>
+    <hyperlink ref="N27" r:id="rId47" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C82515" xr:uid="{0C40CDB1-EB4D-40E9-9CDF-25E474B3549B}"/>
+    <hyperlink ref="E27" r:id="rId48" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115409" xr:uid="{23058700-1126-4F6F-A863-97CAF157FF46}"/>
+    <hyperlink ref="E29" r:id="rId49" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115409" xr:uid="{9709EE12-5393-4F97-AF9D-7620D4CFCF7B}"/>
+    <hyperlink ref="N28" r:id="rId50" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C93300" xr:uid="{C30C81C2-942B-4DBD-8D4B-233F326C6D17}"/>
+    <hyperlink ref="N30" r:id="rId51" display="C115801" xr:uid="{D92C76DE-AED4-4A29-8897-97A95B42205D}"/>
+    <hyperlink ref="C28" r:id="rId52" xr:uid="{F0E20353-3808-4B97-B360-33A40079C92B}"/>
+    <hyperlink ref="E28" r:id="rId53" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115409" xr:uid="{2F3CD50A-2F9E-4097-A124-E4DB96A1C678}"/>
+    <hyperlink ref="E30" r:id="rId54" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115409" xr:uid="{92E869F0-0E32-4971-B926-7E634DC07D7D}"/>
+    <hyperlink ref="N32" r:id="rId55" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C82515" xr:uid="{73F3017C-132E-40EF-8BAF-29833EA72287}"/>
+    <hyperlink ref="E32" r:id="rId56" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115409" xr:uid="{F73457DB-7B19-4F04-A39A-65B45357DC95}"/>
+    <hyperlink ref="E34" r:id="rId57" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115409" xr:uid="{E7CDCA69-7F9A-4DA1-BD3E-84C0151DB1D0}"/>
+    <hyperlink ref="N33" r:id="rId58" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C93300" xr:uid="{D21E990D-5CBB-4678-9C39-D51BEBB143EE}"/>
+    <hyperlink ref="N35" r:id="rId59" display="C115801" xr:uid="{2A468153-D347-4C8B-BD05-98AAC7B66913}"/>
+    <hyperlink ref="E33" r:id="rId60" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115409" xr:uid="{C2829E57-C230-4CDF-903C-BE6D36F3D43C}"/>
+    <hyperlink ref="E35" r:id="rId61" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115409" xr:uid="{D1A6B0A7-26F4-491A-91A4-04612AF7F53E}"/>
+    <hyperlink ref="N37" r:id="rId62" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C82515" xr:uid="{DA1FDDA2-661D-4D76-ADBA-659198998077}"/>
+    <hyperlink ref="E37" r:id="rId63" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115409" xr:uid="{05CF1DE3-A4C4-44A2-B672-77B3052E9BCB}"/>
+    <hyperlink ref="C23" r:id="rId64" xr:uid="{4142B31A-4B36-4266-B27E-814FF0CB9DCB}"/>
+    <hyperlink ref="C33" r:id="rId65" display="C115804" xr:uid="{8CE380B2-BE29-4565-8D05-A3E8CBEBB4A7}"/>
+    <hyperlink ref="C18" r:id="rId66" xr:uid="{2B531F45-9195-4782-8038-911D7005F075}"/>
+    <hyperlink ref="D18" r:id="rId67" xr:uid="{7E0F4B3D-FF52-4386-B79A-233AF36BA8D4}"/>
+    <hyperlink ref="C19" r:id="rId68" xr:uid="{5C78277D-94CF-4278-AD3C-294E3F66C3B4}"/>
+    <hyperlink ref="D19" r:id="rId69" xr:uid="{DBC341C8-CA93-46DB-9CC1-F7A9072A8B84}"/>
+    <hyperlink ref="C20" r:id="rId70" xr:uid="{FA0C1D2F-954D-408E-AA2D-331AA747ECD6}"/>
+    <hyperlink ref="D20" r:id="rId71" xr:uid="{4901C441-9C82-4B8A-AF25-2608359AA8E7}"/>
+    <hyperlink ref="C22" r:id="rId72" xr:uid="{5F660024-92E1-4B85-AF04-604DFE3D89F1}"/>
+    <hyperlink ref="D22" r:id="rId73" xr:uid="{5069CA9E-039A-4552-B075-9955FDD5E70E}"/>
+    <hyperlink ref="D23" r:id="rId74" xr:uid="{5E34D92F-DFAF-48AF-81CF-9D7EAC736C9A}"/>
+    <hyperlink ref="C24" r:id="rId75" xr:uid="{42826C2B-B15F-44D4-91AC-3C3574673F6E}"/>
+    <hyperlink ref="C25" r:id="rId76" xr:uid="{039C0ECE-2E84-433D-9DD3-3D2AB177FA4D}"/>
+    <hyperlink ref="C27" r:id="rId77" xr:uid="{ABBFA6E8-B038-409E-82E9-4B260183A62E}"/>
+    <hyperlink ref="D24" r:id="rId78" xr:uid="{355302CF-374E-4623-AC78-E77C51D04956}"/>
+    <hyperlink ref="D25" r:id="rId79" xr:uid="{5AEC0646-7F7F-4009-B968-5711EFB138AE}"/>
+    <hyperlink ref="D27" r:id="rId80" xr:uid="{34B16AEA-7454-4DCB-B213-C255F458791C}"/>
+    <hyperlink ref="D28" r:id="rId81" xr:uid="{63365BED-3B11-41CA-BB05-44B69EE79572}"/>
+    <hyperlink ref="C29" r:id="rId82" xr:uid="{9D04A2C6-CB69-4202-8011-391C77DAFD84}"/>
+    <hyperlink ref="D29" r:id="rId83" xr:uid="{11F26EB3-5659-430F-B3DA-A5B4E83BDEFD}"/>
+    <hyperlink ref="C30" r:id="rId84" xr:uid="{3FA8BA40-E267-41DA-B985-18BBE67B3286}"/>
+    <hyperlink ref="D30" r:id="rId85" xr:uid="{87A18AB3-24E1-4395-AC90-C384F99BC12F}"/>
+    <hyperlink ref="C32" r:id="rId86" xr:uid="{45A0177E-F429-4F23-8DA7-68BD902DF13C}"/>
+    <hyperlink ref="D32" r:id="rId87" xr:uid="{6707A824-8921-4259-86D6-2DF920FEBB39}"/>
+    <hyperlink ref="D33" r:id="rId88" display="C115804" xr:uid="{DE32EFDD-DDD2-417E-8695-58CF18B7E572}"/>
+    <hyperlink ref="C34" r:id="rId89" display="C115804" xr:uid="{938BA65B-6D2A-4426-A489-8108BDCA8776}"/>
+    <hyperlink ref="D34" r:id="rId90" display="C115804" xr:uid="{A7520F03-0CEA-4883-88F2-0D119295AF3B}"/>
+    <hyperlink ref="C35" r:id="rId91" display="C115804" xr:uid="{5635500F-665F-4F0B-9ABE-ACB25CF441E9}"/>
+    <hyperlink ref="D35" r:id="rId92" display="C115804" xr:uid="{227F1913-4036-43AC-9E5D-309C47B58DAD}"/>
+    <hyperlink ref="C37" r:id="rId93" display="C115804" xr:uid="{51370DE7-7CE0-4068-816C-4B408CCA5F3F}"/>
+    <hyperlink ref="D37" r:id="rId94" display="C115804" xr:uid="{5EA29D7F-F00D-4BB4-82BC-CA0B661F5377}"/>
+    <hyperlink ref="N6" r:id="rId95" display="C115801" xr:uid="{C9E1F834-8535-4D78-A1FD-DD7A0AF6177A}"/>
+    <hyperlink ref="C5" r:id="rId96" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115789" xr:uid="{B972C18B-3F6B-4ECC-A3A5-47E2C23D0789}"/>
+    <hyperlink ref="D5" r:id="rId97" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115789" xr:uid="{9CAA1B1C-626E-4E24-BA15-80F2D17227AF}"/>
+    <hyperlink ref="C4" r:id="rId98" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115789" xr:uid="{C8D97125-1BEE-456D-8C59-1A2C3DA76634}"/>
+    <hyperlink ref="D4" r:id="rId99" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115789" xr:uid="{4452E049-0931-4A96-9135-20C3588C7C95}"/>
+    <hyperlink ref="C3" r:id="rId100" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115789" xr:uid="{81DA94C1-3FE8-4FE8-8FBB-1570086486B0}"/>
+    <hyperlink ref="D3" r:id="rId101" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115789" xr:uid="{99FC8250-1EA2-4085-AF6D-D67EA1A86009}"/>
+    <hyperlink ref="N4" r:id="rId102" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C82515" xr:uid="{BB940106-B737-4219-97E0-A6DE996B3D6A}"/>
+    <hyperlink ref="N5" r:id="rId103" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C25372" xr:uid="{0C64A893-4A18-428C-845C-9DEDCE04179C}"/>
+    <hyperlink ref="M11" r:id="rId104" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC25372&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896542833%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=4vZ1BHmFQU843PBlUz7GUmPeqDXM3OIxiJBsjXMJOhs%3D&amp;reserved=0" xr:uid="{EBB2AF08-3B9B-494B-9939-5A9051304528}"/>
+    <hyperlink ref="N11" r:id="rId105" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC25372&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896542833%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=4vZ1BHmFQU843PBlUz7GUmPeqDXM3OIxiJBsjXMJOhs%3D&amp;reserved=0" xr:uid="{AE85DF50-7E72-435D-BDA0-F814E4068144}"/>
+    <hyperlink ref="M16" r:id="rId106" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC25372&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896542833%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=4vZ1BHmFQU843PBlUz7GUmPeqDXM3OIxiJBsjXMJOhs%3D&amp;reserved=0" xr:uid="{FFDBF6E7-632D-450B-8AFD-EC9DE1517E0E}"/>
+    <hyperlink ref="N16" r:id="rId107" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC25372&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896542833%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=4vZ1BHmFQU843PBlUz7GUmPeqDXM3OIxiJBsjXMJOhs%3D&amp;reserved=0" xr:uid="{539F903F-6F1C-43E8-B51F-59D407313A1F}"/>
+    <hyperlink ref="M21" r:id="rId108" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC25372&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896542833%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=4vZ1BHmFQU843PBlUz7GUmPeqDXM3OIxiJBsjXMJOhs%3D&amp;reserved=0" xr:uid="{0D888AC7-E11A-41FD-89FA-863BC2FAAC6C}"/>
+    <hyperlink ref="N21" r:id="rId109" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC25372&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896542833%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=4vZ1BHmFQU843PBlUz7GUmPeqDXM3OIxiJBsjXMJOhs%3D&amp;reserved=0" xr:uid="{53158E68-DFE6-448F-A7E9-0FCC27B23AEF}"/>
+    <hyperlink ref="M26" r:id="rId110" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC25372&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896542833%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=4vZ1BHmFQU843PBlUz7GUmPeqDXM3OIxiJBsjXMJOhs%3D&amp;reserved=0" xr:uid="{3A6FB971-B9FA-47B7-B507-24F3CDD41722}"/>
+    <hyperlink ref="N26" r:id="rId111" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC25372&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896542833%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=4vZ1BHmFQU843PBlUz7GUmPeqDXM3OIxiJBsjXMJOhs%3D&amp;reserved=0" xr:uid="{A016A874-788A-497E-AD7B-5BDF078F1A1D}"/>
+    <hyperlink ref="M31" r:id="rId112" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC25372&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896542833%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=4vZ1BHmFQU843PBlUz7GUmPeqDXM3OIxiJBsjXMJOhs%3D&amp;reserved=0" xr:uid="{8CDF7EF2-C22E-4ACF-ADF5-0642CBDD6D62}"/>
+    <hyperlink ref="N31" r:id="rId113" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC25372&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896542833%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=4vZ1BHmFQU843PBlUz7GUmPeqDXM3OIxiJBsjXMJOhs%3D&amp;reserved=0" xr:uid="{09413D86-14B8-4EEF-8725-1D1076146EC5}"/>
+    <hyperlink ref="M36" r:id="rId114" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC25372&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896542833%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=4vZ1BHmFQU843PBlUz7GUmPeqDXM3OIxiJBsjXMJOhs%3D&amp;reserved=0" xr:uid="{5CDF9BAC-03B4-419D-8CD7-28E215AFA62B}"/>
+    <hyperlink ref="N36" r:id="rId115" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC25372&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896542833%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=4vZ1BHmFQU843PBlUz7GUmPeqDXM3OIxiJBsjXMJOhs%3D&amp;reserved=0" xr:uid="{54621499-D45A-42BA-BA89-A5447A39B0BE}"/>
+    <hyperlink ref="C11" r:id="rId116" xr:uid="{07185CCB-818E-47AD-AFFD-E92A9102FD01}"/>
+    <hyperlink ref="D11" r:id="rId117" xr:uid="{7EA25534-BB30-4FA2-A268-2006F872C147}"/>
+    <hyperlink ref="E11" r:id="rId118" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115409" xr:uid="{B5A81F3C-95A4-4089-B19B-9DCB391A960D}"/>
+    <hyperlink ref="C16" r:id="rId119" xr:uid="{8684A373-7087-4A08-856E-E9DD7B368899}"/>
+    <hyperlink ref="D16" r:id="rId120" xr:uid="{BA2077EB-D95B-4F06-A0F1-7BFF2C29FEDA}"/>
+    <hyperlink ref="E16" r:id="rId121" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115409" xr:uid="{966F2FE9-193E-4692-AB21-AF0EFF9A7CB6}"/>
+    <hyperlink ref="E21" r:id="rId122" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115409" xr:uid="{5BC39B0D-5B82-4D33-B33F-463E3C8344C4}"/>
+    <hyperlink ref="C21" r:id="rId123" xr:uid="{D3666D33-C31A-413D-B5EA-CA656B182175}"/>
+    <hyperlink ref="D21" r:id="rId124" xr:uid="{3CC5B43A-99D0-4FD2-B46F-2990959BEBAD}"/>
+    <hyperlink ref="E26" r:id="rId125" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115409" xr:uid="{AE62F3B6-60CB-469A-BBF1-1BEF5CBBE102}"/>
+    <hyperlink ref="C26" r:id="rId126" xr:uid="{F8E4E02D-68B6-4E6E-8825-5FFBC6391456}"/>
+    <hyperlink ref="D26" r:id="rId127" xr:uid="{49974AB0-364F-4C4E-A57A-C7E01996DD16}"/>
+    <hyperlink ref="E31" r:id="rId128" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115409" xr:uid="{D5F651E2-D249-4BD6-9AC4-38BFAEC394DD}"/>
+    <hyperlink ref="C31" r:id="rId129" xr:uid="{E096F1F7-8F7B-45E8-BFB7-2C720B6175AB}"/>
+    <hyperlink ref="D31" r:id="rId130" xr:uid="{CE45A936-F691-4204-92D6-B89A27A5E2E1}"/>
+    <hyperlink ref="E36" r:id="rId131" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C115409" xr:uid="{427182C6-62C1-4E3D-91E1-C020E1C90456}"/>
+    <hyperlink ref="C36" r:id="rId132" display="C115804" xr:uid="{05228F30-2043-40F3-8580-14FA89785678}"/>
+    <hyperlink ref="D36" r:id="rId133" display="C115804" xr:uid="{CCE4BCEA-3E53-4B09-8B28-39FEB25938A0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2369,8 +2834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7D38B7-85C7-42C3-9CA2-CA2E5F60DFCE}">
   <dimension ref="A1:AG61"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q71" sqref="Q71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2396,132 +2861,132 @@
     <col min="27" max="27" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="12" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:33" s="11" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="S1" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="T1" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="U1" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="W1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="X1" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Y1" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="Z1" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AA1" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AB1" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="AC1" s="12" t="s">
+      <c r="AC1" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="AD1" s="12" t="s">
+      <c r="AD1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="AE1" s="12" t="s">
+      <c r="AE1" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="AF1" s="12" t="s">
+      <c r="AF1" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="AG1" s="16" t="s">
+      <c r="AG1" s="15" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>145</v>
       </c>
       <c r="H2" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>104</v>
       </c>
       <c r="K2" t="s">
@@ -2533,11 +2998,11 @@
       <c r="M2" t="s">
         <v>122</v>
       </c>
-      <c r="N2" s="5"/>
+      <c r="N2" s="4"/>
       <c r="P2" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="9" t="s">
         <v>38</v>
       </c>
       <c r="R2" t="s">
@@ -2581,30 +3046,30 @@
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="8" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>145</v>
       </c>
       <c r="H3" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="8" t="s">
         <v>105</v>
       </c>
       <c r="K3" t="s">
@@ -2616,11 +3081,11 @@
       <c r="M3" t="s">
         <v>124</v>
       </c>
-      <c r="N3" s="5"/>
+      <c r="N3" s="4"/>
       <c r="P3" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="Q3" s="9" t="s">
         <v>103</v>
       </c>
       <c r="R3" t="s">
@@ -2667,30 +3132,32 @@
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="8" t="s">
+      <c r="E4" s="10"/>
+      <c r="F4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>145</v>
       </c>
       <c r="H4" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="8" t="s">
         <v>106</v>
       </c>
       <c r="K4" t="s">
@@ -2702,11 +3169,11 @@
       <c r="M4" t="s">
         <v>106</v>
       </c>
-      <c r="N4" s="5"/>
+      <c r="N4" s="4"/>
       <c r="P4" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="10" t="s">
+      <c r="Q4" s="9" t="s">
         <v>112</v>
       </c>
       <c r="R4" t="s">
@@ -2756,39 +3223,39 @@
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="8" t="s">
+      <c r="E5" s="10"/>
+      <c r="F5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>145</v>
       </c>
       <c r="H5" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="8" t="s">
         <v>107</v>
       </c>
       <c r="K5" t="s">
         <v>93</v>
       </c>
-      <c r="N5" s="5"/>
-      <c r="Q5" s="10"/>
+      <c r="N5" s="4"/>
+      <c r="Q5" s="9"/>
       <c r="R5" t="s">
         <v>86</v>
       </c>
@@ -2833,32 +3300,32 @@
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="8" t="s">
+      <c r="E6" s="10"/>
+      <c r="F6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>145</v>
       </c>
       <c r="H6" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="8" t="s">
         <v>108</v>
       </c>
       <c r="K6" t="s">
@@ -2870,11 +3337,11 @@
       <c r="M6" t="s">
         <v>97</v>
       </c>
-      <c r="N6" s="5"/>
+      <c r="N6" s="4"/>
       <c r="P6" t="s">
         <v>126</v>
       </c>
-      <c r="Q6" s="10" t="s">
+      <c r="Q6" s="9" t="s">
         <v>113</v>
       </c>
       <c r="R6" t="s">
@@ -2921,39 +3388,39 @@
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="8" t="s">
+      <c r="E7" s="10"/>
+      <c r="F7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="7" t="s">
         <v>145</v>
       </c>
       <c r="H7" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="8" t="s">
         <v>109</v>
       </c>
       <c r="K7" t="s">
         <v>93</v>
       </c>
-      <c r="N7" s="5"/>
-      <c r="Q7" s="10"/>
+      <c r="N7" s="4"/>
+      <c r="Q7" s="9"/>
       <c r="R7" t="s">
         <v>86</v>
       </c>
@@ -2992,39 +3459,39 @@
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="8" t="s">
+      <c r="E8" s="10"/>
+      <c r="F8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="7" t="s">
         <v>145</v>
       </c>
       <c r="H8" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="8" t="s">
         <v>110</v>
       </c>
       <c r="K8" t="s">
         <v>93</v>
       </c>
-      <c r="N8" s="5"/>
-      <c r="Q8" s="10"/>
+      <c r="N8" s="4"/>
+      <c r="Q8" s="9"/>
       <c r="R8" t="s">
         <v>86</v>
       </c>
@@ -3063,32 +3530,32 @@
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="8" t="s">
+      <c r="E9" s="10"/>
+      <c r="F9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="7" t="s">
         <v>145</v>
       </c>
       <c r="H9" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="8" t="s">
         <v>114</v>
       </c>
       <c r="K9" t="s">
@@ -3100,11 +3567,11 @@
       <c r="M9" t="s">
         <v>97</v>
       </c>
-      <c r="N9" s="5"/>
+      <c r="N9" s="4"/>
       <c r="P9" t="s">
         <v>126</v>
       </c>
-      <c r="Q9" s="10" t="s">
+      <c r="Q9" s="9" t="s">
         <v>113</v>
       </c>
       <c r="R9" t="s">
@@ -3139,39 +3606,39 @@
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="8" t="s">
+      <c r="E10" s="10"/>
+      <c r="F10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="7" t="s">
         <v>145</v>
       </c>
       <c r="H10" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="8" t="s">
         <v>156</v>
       </c>
       <c r="K10" t="s">
         <v>83</v>
       </c>
-      <c r="N10" s="5"/>
-      <c r="Q10" s="10"/>
+      <c r="N10" s="4"/>
+      <c r="Q10" s="9"/>
       <c r="R10" t="s">
         <v>86</v>
       </c>
@@ -3189,39 +3656,39 @@
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="8" t="s">
+      <c r="E11" s="10"/>
+      <c r="F11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="7" t="s">
         <v>145</v>
       </c>
       <c r="H11" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="8" t="s">
         <v>118</v>
       </c>
       <c r="K11" t="s">
         <v>93</v>
       </c>
-      <c r="N11" s="5"/>
-      <c r="Q11" s="10"/>
+      <c r="N11" s="4"/>
+      <c r="Q11" s="9"/>
       <c r="R11" t="s">
         <v>119</v>
       </c>
@@ -3251,30 +3718,30 @@
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7" t="s">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="8" t="s">
+      <c r="E12" s="10"/>
+      <c r="F12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="7" t="s">
         <v>145</v>
       </c>
       <c r="H12" t="s">
         <v>146</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="8" t="s">
         <v>104</v>
       </c>
       <c r="K12" t="s">
@@ -3286,11 +3753,11 @@
       <c r="M12" t="s">
         <v>122</v>
       </c>
-      <c r="N12" s="5"/>
+      <c r="N12" s="4"/>
       <c r="P12" t="s">
         <v>31</v>
       </c>
-      <c r="Q12" s="10" t="s">
+      <c r="Q12" s="9" t="s">
         <v>146</v>
       </c>
       <c r="R12" t="s">
@@ -3334,30 +3801,30 @@
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B13" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7" t="s">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="8" t="s">
+      <c r="E13" s="10"/>
+      <c r="F13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="7" t="s">
         <v>145</v>
       </c>
       <c r="H13" t="s">
         <v>146</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" s="8" t="s">
         <v>105</v>
       </c>
       <c r="K13" t="s">
@@ -3369,11 +3836,11 @@
       <c r="M13" t="s">
         <v>124</v>
       </c>
-      <c r="N13" s="5"/>
+      <c r="N13" s="4"/>
       <c r="P13" t="s">
         <v>31</v>
       </c>
-      <c r="Q13" s="10" t="s">
+      <c r="Q13" s="9" t="s">
         <v>158</v>
       </c>
       <c r="R13" t="s">
@@ -3420,30 +3887,32 @@
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B14" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7" t="s">
+      <c r="C14" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="8" t="s">
+      <c r="E14" s="10"/>
+      <c r="F14" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="7" t="s">
         <v>145</v>
       </c>
       <c r="H14" t="s">
         <v>146</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="8" t="s">
         <v>106</v>
       </c>
       <c r="K14" t="s">
@@ -3455,11 +3924,11 @@
       <c r="M14" t="s">
         <v>106</v>
       </c>
-      <c r="N14" s="5"/>
+      <c r="N14" s="4"/>
       <c r="P14" t="s">
         <v>24</v>
       </c>
-      <c r="Q14" s="10" t="s">
+      <c r="Q14" s="9" t="s">
         <v>112</v>
       </c>
       <c r="R14" t="s">
@@ -3509,39 +3978,39 @@
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B15" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="8" t="s">
+      <c r="E15" s="10"/>
+      <c r="F15" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="7" t="s">
         <v>145</v>
       </c>
       <c r="H15" t="s">
         <v>146</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J15" s="8" t="s">
         <v>107</v>
       </c>
       <c r="K15" t="s">
         <v>93</v>
       </c>
-      <c r="N15" s="5"/>
-      <c r="Q15" s="10"/>
+      <c r="N15" s="4"/>
+      <c r="Q15" s="9"/>
       <c r="R15" t="s">
         <v>86</v>
       </c>
@@ -3586,32 +4055,32 @@
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B16" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="8" t="s">
+      <c r="E16" s="10"/>
+      <c r="F16" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="7" t="s">
         <v>145</v>
       </c>
       <c r="H16" t="s">
         <v>146</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="J16" s="8" t="s">
         <v>108</v>
       </c>
       <c r="K16" t="s">
@@ -3623,11 +4092,11 @@
       <c r="M16" t="s">
         <v>97</v>
       </c>
-      <c r="N16" s="5"/>
+      <c r="N16" s="4"/>
       <c r="P16" t="s">
         <v>126</v>
       </c>
-      <c r="Q16" s="10" t="s">
+      <c r="Q16" s="9" t="s">
         <v>113</v>
       </c>
       <c r="R16" t="s">
@@ -3674,39 +4143,39 @@
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="8" t="s">
+      <c r="E17" s="10"/>
+      <c r="F17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="7" t="s">
         <v>145</v>
       </c>
       <c r="H17" t="s">
         <v>146</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="J17" s="8" t="s">
         <v>109</v>
       </c>
       <c r="K17" t="s">
         <v>93</v>
       </c>
-      <c r="N17" s="5"/>
-      <c r="Q17" s="10"/>
+      <c r="N17" s="4"/>
+      <c r="Q17" s="9"/>
       <c r="R17" t="s">
         <v>86</v>
       </c>
@@ -3745,39 +4214,39 @@
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B18" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="8" t="s">
+      <c r="E18" s="10"/>
+      <c r="F18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="7" t="s">
         <v>145</v>
       </c>
       <c r="H18" t="s">
         <v>146</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="I18" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="J18" s="8" t="s">
         <v>110</v>
       </c>
       <c r="K18" t="s">
         <v>93</v>
       </c>
-      <c r="N18" s="5"/>
-      <c r="Q18" s="10"/>
+      <c r="N18" s="4"/>
+      <c r="Q18" s="9"/>
       <c r="R18" t="s">
         <v>86</v>
       </c>
@@ -3816,32 +4285,32 @@
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B19" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="8" t="s">
+      <c r="E19" s="10"/>
+      <c r="F19" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="7" t="s">
         <v>145</v>
       </c>
       <c r="H19" t="s">
         <v>146</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="J19" s="8" t="s">
         <v>114</v>
       </c>
       <c r="K19" t="s">
@@ -3853,11 +4322,11 @@
       <c r="M19" t="s">
         <v>97</v>
       </c>
-      <c r="N19" s="5"/>
+      <c r="N19" s="4"/>
       <c r="P19" t="s">
         <v>126</v>
       </c>
-      <c r="Q19" s="10" t="s">
+      <c r="Q19" s="9" t="s">
         <v>113</v>
       </c>
       <c r="R19" t="s">
@@ -3892,39 +4361,39 @@
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B20" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="8" t="s">
+      <c r="E20" s="10"/>
+      <c r="F20" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="7" t="s">
         <v>145</v>
       </c>
       <c r="H20" t="s">
         <v>146</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="I20" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="J20" s="8" t="s">
         <v>156</v>
       </c>
       <c r="K20" t="s">
         <v>83</v>
       </c>
-      <c r="N20" s="5"/>
-      <c r="Q20" s="10"/>
+      <c r="N20" s="4"/>
+      <c r="Q20" s="9"/>
       <c r="R20" t="s">
         <v>86</v>
       </c>
@@ -3942,39 +4411,39 @@
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B21" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="8" t="s">
+      <c r="E21" s="10"/>
+      <c r="F21" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="7" t="s">
         <v>145</v>
       </c>
       <c r="H21" t="s">
         <v>146</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="I21" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="J21" s="9" t="s">
+      <c r="J21" s="8" t="s">
         <v>118</v>
       </c>
       <c r="K21" t="s">
         <v>93</v>
       </c>
-      <c r="N21" s="5"/>
-      <c r="Q21" s="10"/>
+      <c r="N21" s="4"/>
+      <c r="Q21" s="9"/>
       <c r="R21" t="s">
         <v>119</v>
       </c>
@@ -4004,30 +4473,30 @@
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B22" t="s">
         <v>133</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7" t="s">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="8" t="s">
+      <c r="E22" s="10"/>
+      <c r="F22" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="7" t="s">
         <v>145</v>
       </c>
       <c r="H22" t="s">
         <v>148</v>
       </c>
-      <c r="I22" s="8" t="s">
+      <c r="I22" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="J22" s="9" t="s">
+      <c r="J22" s="8" t="s">
         <v>104</v>
       </c>
       <c r="K22" t="s">
@@ -4039,11 +4508,11 @@
       <c r="M22" t="s">
         <v>122</v>
       </c>
-      <c r="N22" s="5"/>
+      <c r="N22" s="4"/>
       <c r="P22" t="s">
         <v>133</v>
       </c>
-      <c r="Q22" s="10" t="s">
+      <c r="Q22" s="9" t="s">
         <v>148</v>
       </c>
       <c r="R22" t="s">
@@ -4087,30 +4556,30 @@
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B23" t="s">
         <v>133</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7" t="s">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="8" t="s">
+      <c r="E23" s="10"/>
+      <c r="F23" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="7" t="s">
         <v>145</v>
       </c>
       <c r="H23" t="s">
         <v>148</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="I23" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="J23" s="9" t="s">
+      <c r="J23" s="8" t="s">
         <v>105</v>
       </c>
       <c r="K23" t="s">
@@ -4122,11 +4591,11 @@
       <c r="M23" t="s">
         <v>124</v>
       </c>
-      <c r="N23" s="5"/>
+      <c r="N23" s="4"/>
       <c r="P23" t="s">
         <v>133</v>
       </c>
-      <c r="Q23" s="10" t="s">
+      <c r="Q23" s="9" t="s">
         <v>159</v>
       </c>
       <c r="R23" t="s">
@@ -4173,30 +4642,32 @@
       </c>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B24" t="s">
         <v>133</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7" t="s">
+      <c r="C24" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="8" t="s">
+      <c r="E24" s="10"/>
+      <c r="F24" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="7" t="s">
         <v>145</v>
       </c>
       <c r="H24" t="s">
         <v>148</v>
       </c>
-      <c r="I24" s="8" t="s">
+      <c r="I24" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="J24" s="8" t="s">
         <v>106</v>
       </c>
       <c r="K24" t="s">
@@ -4208,11 +4679,11 @@
       <c r="M24" t="s">
         <v>106</v>
       </c>
-      <c r="N24" s="5"/>
+      <c r="N24" s="4"/>
       <c r="P24" t="s">
         <v>24</v>
       </c>
-      <c r="Q24" s="10" t="s">
+      <c r="Q24" s="9" t="s">
         <v>112</v>
       </c>
       <c r="R24" t="s">
@@ -4262,39 +4733,39 @@
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B25" t="s">
         <v>133</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="8" t="s">
+      <c r="E25" s="10"/>
+      <c r="F25" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="G25" s="7" t="s">
         <v>145</v>
       </c>
       <c r="H25" t="s">
         <v>148</v>
       </c>
-      <c r="I25" s="8" t="s">
+      <c r="I25" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="8" t="s">
         <v>107</v>
       </c>
       <c r="K25" t="s">
         <v>93</v>
       </c>
-      <c r="N25" s="5"/>
-      <c r="Q25" s="10"/>
+      <c r="N25" s="4"/>
+      <c r="Q25" s="9"/>
       <c r="R25" t="s">
         <v>86</v>
       </c>
@@ -4339,32 +4810,32 @@
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B26" t="s">
         <v>133</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="8" t="s">
+      <c r="E26" s="10"/>
+      <c r="F26" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="7" t="s">
         <v>145</v>
       </c>
       <c r="H26" t="s">
         <v>148</v>
       </c>
-      <c r="I26" s="8" t="s">
+      <c r="I26" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="J26" s="9" t="s">
+      <c r="J26" s="8" t="s">
         <v>108</v>
       </c>
       <c r="K26" t="s">
@@ -4376,11 +4847,11 @@
       <c r="M26" t="s">
         <v>97</v>
       </c>
-      <c r="N26" s="5"/>
+      <c r="N26" s="4"/>
       <c r="P26" t="s">
         <v>126</v>
       </c>
-      <c r="Q26" s="10" t="s">
+      <c r="Q26" s="9" t="s">
         <v>113</v>
       </c>
       <c r="R26" t="s">
@@ -4427,39 +4898,39 @@
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B27" t="s">
         <v>133</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="8" t="s">
+      <c r="E27" s="10"/>
+      <c r="F27" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="7" t="s">
         <v>145</v>
       </c>
       <c r="H27" t="s">
         <v>148</v>
       </c>
-      <c r="I27" s="8" t="s">
+      <c r="I27" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="J27" s="9" t="s">
+      <c r="J27" s="8" t="s">
         <v>109</v>
       </c>
       <c r="K27" t="s">
         <v>93</v>
       </c>
-      <c r="N27" s="5"/>
-      <c r="Q27" s="10"/>
+      <c r="N27" s="4"/>
+      <c r="Q27" s="9"/>
       <c r="R27" t="s">
         <v>86</v>
       </c>
@@ -4498,39 +4969,39 @@
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B28" t="s">
         <v>133</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="8" t="s">
+      <c r="E28" s="10"/>
+      <c r="F28" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="7" t="s">
         <v>145</v>
       </c>
       <c r="H28" t="s">
         <v>148</v>
       </c>
-      <c r="I28" s="8" t="s">
+      <c r="I28" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="J28" s="9" t="s">
+      <c r="J28" s="8" t="s">
         <v>110</v>
       </c>
       <c r="K28" t="s">
         <v>93</v>
       </c>
-      <c r="N28" s="5"/>
-      <c r="Q28" s="10"/>
+      <c r="N28" s="4"/>
+      <c r="Q28" s="9"/>
       <c r="R28" t="s">
         <v>86</v>
       </c>
@@ -4569,32 +5040,32 @@
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B29" t="s">
         <v>133</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="8" t="s">
+      <c r="E29" s="10"/>
+      <c r="F29" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="G29" s="7" t="s">
         <v>145</v>
       </c>
       <c r="H29" t="s">
         <v>148</v>
       </c>
-      <c r="I29" s="8" t="s">
+      <c r="I29" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="J29" s="9" t="s">
+      <c r="J29" s="8" t="s">
         <v>114</v>
       </c>
       <c r="K29" t="s">
@@ -4606,11 +5077,11 @@
       <c r="M29" t="s">
         <v>97</v>
       </c>
-      <c r="N29" s="5"/>
+      <c r="N29" s="4"/>
       <c r="P29" t="s">
         <v>126</v>
       </c>
-      <c r="Q29" s="10" t="s">
+      <c r="Q29" s="9" t="s">
         <v>113</v>
       </c>
       <c r="R29" t="s">
@@ -4645,39 +5116,39 @@
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B30" t="s">
         <v>133</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="8" t="s">
+      <c r="E30" s="10"/>
+      <c r="F30" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G30" s="7" t="s">
         <v>145</v>
       </c>
       <c r="H30" t="s">
         <v>148</v>
       </c>
-      <c r="I30" s="8" t="s">
+      <c r="I30" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="J30" s="9" t="s">
+      <c r="J30" s="8" t="s">
         <v>156</v>
       </c>
       <c r="K30" t="s">
         <v>83</v>
       </c>
-      <c r="N30" s="5"/>
-      <c r="Q30" s="10"/>
+      <c r="N30" s="4"/>
+      <c r="Q30" s="9"/>
       <c r="R30" t="s">
         <v>86</v>
       </c>
@@ -4695,39 +5166,39 @@
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B31" t="s">
         <v>133</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="8" t="s">
+      <c r="E31" s="10"/>
+      <c r="F31" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="G31" s="7" t="s">
         <v>145</v>
       </c>
       <c r="H31" t="s">
         <v>148</v>
       </c>
-      <c r="I31" s="8" t="s">
+      <c r="I31" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="J31" s="9" t="s">
+      <c r="J31" s="8" t="s">
         <v>118</v>
       </c>
       <c r="K31" t="s">
         <v>93</v>
       </c>
-      <c r="N31" s="5"/>
-      <c r="Q31" s="10"/>
+      <c r="N31" s="4"/>
+      <c r="Q31" s="9"/>
       <c r="R31" t="s">
         <v>119</v>
       </c>
@@ -4757,30 +5228,30 @@
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B32" t="s">
         <v>134</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7" t="s">
+      <c r="C32" s="6"/>
+      <c r="D32" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="8" t="s">
+      <c r="E32" s="10"/>
+      <c r="F32" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="G32" s="7" t="s">
         <v>145</v>
       </c>
       <c r="H32" t="s">
         <v>150</v>
       </c>
-      <c r="I32" s="8" t="s">
+      <c r="I32" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="J32" s="9" t="s">
+      <c r="J32" s="8" t="s">
         <v>104</v>
       </c>
       <c r="K32" t="s">
@@ -4792,11 +5263,11 @@
       <c r="M32" t="s">
         <v>122</v>
       </c>
-      <c r="N32" s="5"/>
+      <c r="N32" s="4"/>
       <c r="P32" t="s">
         <v>134</v>
       </c>
-      <c r="Q32" s="10" t="s">
+      <c r="Q32" s="9" t="s">
         <v>150</v>
       </c>
       <c r="R32" t="s">
@@ -4840,30 +5311,30 @@
       </c>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B33" t="s">
         <v>134</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7" t="s">
+      <c r="C33" s="6"/>
+      <c r="D33" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="8" t="s">
+      <c r="E33" s="10"/>
+      <c r="F33" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="G33" s="7" t="s">
         <v>145</v>
       </c>
       <c r="H33" t="s">
         <v>150</v>
       </c>
-      <c r="I33" s="8" t="s">
+      <c r="I33" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="J33" s="9" t="s">
+      <c r="J33" s="8" t="s">
         <v>105</v>
       </c>
       <c r="K33" t="s">
@@ -4875,11 +5346,11 @@
       <c r="M33" t="s">
         <v>124</v>
       </c>
-      <c r="N33" s="5"/>
+      <c r="N33" s="4"/>
       <c r="P33" t="s">
         <v>134</v>
       </c>
-      <c r="Q33" s="10" t="s">
+      <c r="Q33" s="9" t="s">
         <v>160</v>
       </c>
       <c r="R33" t="s">
@@ -4926,30 +5397,32 @@
       </c>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B34" t="s">
         <v>134</v>
       </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7" t="s">
+      <c r="C34" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="8" t="s">
+      <c r="E34" s="10"/>
+      <c r="F34" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="G34" s="7" t="s">
         <v>145</v>
       </c>
       <c r="H34" t="s">
         <v>150</v>
       </c>
-      <c r="I34" s="8" t="s">
+      <c r="I34" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="J34" s="9" t="s">
+      <c r="J34" s="8" t="s">
         <v>106</v>
       </c>
       <c r="K34" t="s">
@@ -4961,11 +5434,11 @@
       <c r="M34" t="s">
         <v>106</v>
       </c>
-      <c r="N34" s="5"/>
+      <c r="N34" s="4"/>
       <c r="P34" t="s">
         <v>24</v>
       </c>
-      <c r="Q34" s="10" t="s">
+      <c r="Q34" s="9" t="s">
         <v>112</v>
       </c>
       <c r="R34" t="s">
@@ -5015,39 +5488,39 @@
       </c>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B35" t="s">
         <v>134</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="8" t="s">
+      <c r="E35" s="10"/>
+      <c r="F35" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G35" s="8" t="s">
+      <c r="G35" s="7" t="s">
         <v>145</v>
       </c>
       <c r="H35" t="s">
         <v>150</v>
       </c>
-      <c r="I35" s="8" t="s">
+      <c r="I35" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="J35" s="9" t="s">
+      <c r="J35" s="8" t="s">
         <v>107</v>
       </c>
       <c r="K35" t="s">
         <v>93</v>
       </c>
-      <c r="N35" s="5"/>
-      <c r="Q35" s="10"/>
+      <c r="N35" s="4"/>
+      <c r="Q35" s="9"/>
       <c r="R35" t="s">
         <v>86</v>
       </c>
@@ -5092,32 +5565,32 @@
       </c>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B36" t="s">
         <v>134</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="8" t="s">
+      <c r="E36" s="10"/>
+      <c r="F36" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="G36" s="7" t="s">
         <v>145</v>
       </c>
       <c r="H36" t="s">
         <v>150</v>
       </c>
-      <c r="I36" s="8" t="s">
+      <c r="I36" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="J36" s="9" t="s">
+      <c r="J36" s="8" t="s">
         <v>108</v>
       </c>
       <c r="K36" t="s">
@@ -5129,11 +5602,11 @@
       <c r="M36" t="s">
         <v>97</v>
       </c>
-      <c r="N36" s="5"/>
+      <c r="N36" s="4"/>
       <c r="P36" t="s">
         <v>126</v>
       </c>
-      <c r="Q36" s="10" t="s">
+      <c r="Q36" s="9" t="s">
         <v>113</v>
       </c>
       <c r="R36" t="s">
@@ -5180,39 +5653,39 @@
       </c>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B37" t="s">
         <v>134</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="8" t="s">
+      <c r="E37" s="10"/>
+      <c r="F37" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="G37" s="7" t="s">
         <v>145</v>
       </c>
       <c r="H37" t="s">
         <v>150</v>
       </c>
-      <c r="I37" s="8" t="s">
+      <c r="I37" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="J37" s="9" t="s">
+      <c r="J37" s="8" t="s">
         <v>109</v>
       </c>
       <c r="K37" t="s">
         <v>93</v>
       </c>
-      <c r="N37" s="5"/>
-      <c r="Q37" s="10"/>
+      <c r="N37" s="4"/>
+      <c r="Q37" s="9"/>
       <c r="R37" t="s">
         <v>86</v>
       </c>
@@ -5251,39 +5724,39 @@
       </c>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B38" t="s">
         <v>134</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E38" s="11"/>
-      <c r="F38" s="8" t="s">
+      <c r="E38" s="10"/>
+      <c r="F38" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="G38" s="7" t="s">
         <v>145</v>
       </c>
       <c r="H38" t="s">
         <v>150</v>
       </c>
-      <c r="I38" s="8" t="s">
+      <c r="I38" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="J38" s="9" t="s">
+      <c r="J38" s="8" t="s">
         <v>110</v>
       </c>
       <c r="K38" t="s">
         <v>93</v>
       </c>
-      <c r="N38" s="5"/>
-      <c r="Q38" s="10"/>
+      <c r="N38" s="4"/>
+      <c r="Q38" s="9"/>
       <c r="R38" t="s">
         <v>86</v>
       </c>
@@ -5322,32 +5795,32 @@
       </c>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B39" t="s">
         <v>134</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E39" s="11"/>
-      <c r="F39" s="8" t="s">
+      <c r="E39" s="10"/>
+      <c r="F39" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G39" s="8" t="s">
+      <c r="G39" s="7" t="s">
         <v>145</v>
       </c>
       <c r="H39" t="s">
         <v>150</v>
       </c>
-      <c r="I39" s="8" t="s">
+      <c r="I39" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="J39" s="9" t="s">
+      <c r="J39" s="8" t="s">
         <v>114</v>
       </c>
       <c r="K39" t="s">
@@ -5359,11 +5832,11 @@
       <c r="M39" t="s">
         <v>97</v>
       </c>
-      <c r="N39" s="5"/>
+      <c r="N39" s="4"/>
       <c r="P39" t="s">
         <v>126</v>
       </c>
-      <c r="Q39" s="10" t="s">
+      <c r="Q39" s="9" t="s">
         <v>113</v>
       </c>
       <c r="R39" t="s">
@@ -5398,39 +5871,39 @@
       </c>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B40" t="s">
         <v>134</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E40" s="11"/>
-      <c r="F40" s="8" t="s">
+      <c r="E40" s="10"/>
+      <c r="F40" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G40" s="8" t="s">
+      <c r="G40" s="7" t="s">
         <v>145</v>
       </c>
       <c r="H40" t="s">
         <v>150</v>
       </c>
-      <c r="I40" s="8" t="s">
+      <c r="I40" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="J40" s="9" t="s">
+      <c r="J40" s="8" t="s">
         <v>156</v>
       </c>
       <c r="K40" t="s">
         <v>83</v>
       </c>
-      <c r="N40" s="5"/>
-      <c r="Q40" s="10"/>
+      <c r="N40" s="4"/>
+      <c r="Q40" s="9"/>
       <c r="R40" t="s">
         <v>86</v>
       </c>
@@ -5448,39 +5921,39 @@
       </c>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B41" t="s">
         <v>134</v>
       </c>
-      <c r="C41" s="26" t="s">
+      <c r="C41" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E41" s="11"/>
-      <c r="F41" s="8" t="s">
+      <c r="E41" s="10"/>
+      <c r="F41" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G41" s="8" t="s">
+      <c r="G41" s="7" t="s">
         <v>145</v>
       </c>
       <c r="H41" t="s">
         <v>150</v>
       </c>
-      <c r="I41" s="8" t="s">
+      <c r="I41" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="J41" s="9" t="s">
+      <c r="J41" s="8" t="s">
         <v>118</v>
       </c>
       <c r="K41" t="s">
         <v>93</v>
       </c>
-      <c r="N41" s="5"/>
-      <c r="Q41" s="10"/>
+      <c r="N41" s="4"/>
+      <c r="Q41" s="9"/>
       <c r="R41" t="s">
         <v>119</v>
       </c>
@@ -5510,30 +5983,30 @@
       </c>
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B42" t="s">
         <v>135</v>
       </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7" t="s">
+      <c r="C42" s="6"/>
+      <c r="D42" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E42" s="11"/>
-      <c r="F42" s="8" t="s">
+      <c r="E42" s="10"/>
+      <c r="F42" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G42" s="8" t="s">
+      <c r="G42" s="7" t="s">
         <v>145</v>
       </c>
       <c r="H42" t="s">
         <v>152</v>
       </c>
-      <c r="I42" s="8" t="s">
+      <c r="I42" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="J42" s="9" t="s">
+      <c r="J42" s="8" t="s">
         <v>104</v>
       </c>
       <c r="K42" t="s">
@@ -5545,11 +6018,11 @@
       <c r="M42" t="s">
         <v>122</v>
       </c>
-      <c r="N42" s="5"/>
+      <c r="N42" s="4"/>
       <c r="P42" t="s">
         <v>135</v>
       </c>
-      <c r="Q42" s="10" t="s">
+      <c r="Q42" s="9" t="s">
         <v>152</v>
       </c>
       <c r="R42" t="s">
@@ -5593,30 +6066,30 @@
       </c>
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B43" t="s">
         <v>135</v>
       </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7" t="s">
+      <c r="C43" s="6"/>
+      <c r="D43" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E43" s="11"/>
-      <c r="F43" s="8" t="s">
+      <c r="E43" s="10"/>
+      <c r="F43" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G43" s="8" t="s">
+      <c r="G43" s="7" t="s">
         <v>145</v>
       </c>
       <c r="H43" t="s">
         <v>152</v>
       </c>
-      <c r="I43" s="8" t="s">
+      <c r="I43" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="J43" s="9" t="s">
+      <c r="J43" s="8" t="s">
         <v>105</v>
       </c>
       <c r="K43" t="s">
@@ -5628,11 +6101,11 @@
       <c r="M43" t="s">
         <v>124</v>
       </c>
-      <c r="N43" s="5"/>
+      <c r="N43" s="4"/>
       <c r="P43" t="s">
         <v>135</v>
       </c>
-      <c r="Q43" s="10" t="s">
+      <c r="Q43" s="9" t="s">
         <v>161</v>
       </c>
       <c r="R43" t="s">
@@ -5679,30 +6152,32 @@
       </c>
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B44" t="s">
         <v>135</v>
       </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7" t="s">
+      <c r="C44" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E44" s="11"/>
-      <c r="F44" s="8" t="s">
+      <c r="E44" s="10"/>
+      <c r="F44" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G44" s="8" t="s">
+      <c r="G44" s="7" t="s">
         <v>145</v>
       </c>
       <c r="H44" t="s">
         <v>152</v>
       </c>
-      <c r="I44" s="8" t="s">
+      <c r="I44" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="J44" s="9" t="s">
+      <c r="J44" s="8" t="s">
         <v>106</v>
       </c>
       <c r="K44" t="s">
@@ -5714,11 +6189,11 @@
       <c r="M44" t="s">
         <v>106</v>
       </c>
-      <c r="N44" s="5"/>
+      <c r="N44" s="4"/>
       <c r="P44" t="s">
         <v>24</v>
       </c>
-      <c r="Q44" s="10" t="s">
+      <c r="Q44" s="9" t="s">
         <v>112</v>
       </c>
       <c r="R44" t="s">
@@ -5768,39 +6243,39 @@
       </c>
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B45" t="s">
         <v>135</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E45" s="11"/>
-      <c r="F45" s="8" t="s">
+      <c r="E45" s="10"/>
+      <c r="F45" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G45" s="8" t="s">
+      <c r="G45" s="7" t="s">
         <v>145</v>
       </c>
       <c r="H45" t="s">
         <v>152</v>
       </c>
-      <c r="I45" s="8" t="s">
+      <c r="I45" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="J45" s="9" t="s">
+      <c r="J45" s="8" t="s">
         <v>107</v>
       </c>
       <c r="K45" t="s">
         <v>93</v>
       </c>
-      <c r="N45" s="5"/>
-      <c r="Q45" s="10"/>
+      <c r="N45" s="4"/>
+      <c r="Q45" s="9"/>
       <c r="R45" t="s">
         <v>86</v>
       </c>
@@ -5845,32 +6320,32 @@
       </c>
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B46" t="s">
         <v>135</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E46" s="11"/>
-      <c r="F46" s="8" t="s">
+      <c r="E46" s="10"/>
+      <c r="F46" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G46" s="8" t="s">
+      <c r="G46" s="7" t="s">
         <v>145</v>
       </c>
       <c r="H46" t="s">
         <v>152</v>
       </c>
-      <c r="I46" s="8" t="s">
+      <c r="I46" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="J46" s="9" t="s">
+      <c r="J46" s="8" t="s">
         <v>108</v>
       </c>
       <c r="K46" t="s">
@@ -5882,11 +6357,11 @@
       <c r="M46" t="s">
         <v>97</v>
       </c>
-      <c r="N46" s="5"/>
+      <c r="N46" s="4"/>
       <c r="P46" t="s">
         <v>126</v>
       </c>
-      <c r="Q46" s="10" t="s">
+      <c r="Q46" s="9" t="s">
         <v>113</v>
       </c>
       <c r="R46" t="s">
@@ -5933,39 +6408,39 @@
       </c>
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>135</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E47" s="11"/>
-      <c r="F47" s="8" t="s">
+      <c r="E47" s="10"/>
+      <c r="F47" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G47" s="8" t="s">
+      <c r="G47" s="7" t="s">
         <v>145</v>
       </c>
       <c r="H47" t="s">
         <v>152</v>
       </c>
-      <c r="I47" s="8" t="s">
+      <c r="I47" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="J47" s="9" t="s">
+      <c r="J47" s="8" t="s">
         <v>109</v>
       </c>
       <c r="K47" t="s">
         <v>93</v>
       </c>
-      <c r="N47" s="5"/>
-      <c r="Q47" s="10"/>
+      <c r="N47" s="4"/>
+      <c r="Q47" s="9"/>
       <c r="R47" t="s">
         <v>86</v>
       </c>
@@ -6004,39 +6479,39 @@
       </c>
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B48" t="s">
         <v>135</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E48" s="11"/>
-      <c r="F48" s="8" t="s">
+      <c r="E48" s="10"/>
+      <c r="F48" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G48" s="8" t="s">
+      <c r="G48" s="7" t="s">
         <v>145</v>
       </c>
       <c r="H48" t="s">
         <v>152</v>
       </c>
-      <c r="I48" s="8" t="s">
+      <c r="I48" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="J48" s="9" t="s">
+      <c r="J48" s="8" t="s">
         <v>110</v>
       </c>
       <c r="K48" t="s">
         <v>93</v>
       </c>
-      <c r="N48" s="5"/>
-      <c r="Q48" s="10"/>
+      <c r="N48" s="4"/>
+      <c r="Q48" s="9"/>
       <c r="R48" t="s">
         <v>86</v>
       </c>
@@ -6075,32 +6550,32 @@
       </c>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B49" t="s">
         <v>135</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E49" s="11"/>
-      <c r="F49" s="8" t="s">
+      <c r="E49" s="10"/>
+      <c r="F49" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G49" s="8" t="s">
+      <c r="G49" s="7" t="s">
         <v>145</v>
       </c>
       <c r="H49" t="s">
         <v>152</v>
       </c>
-      <c r="I49" s="8" t="s">
+      <c r="I49" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="J49" s="9" t="s">
+      <c r="J49" s="8" t="s">
         <v>114</v>
       </c>
       <c r="K49" t="s">
@@ -6112,11 +6587,11 @@
       <c r="M49" t="s">
         <v>97</v>
       </c>
-      <c r="N49" s="5"/>
+      <c r="N49" s="4"/>
       <c r="P49" t="s">
         <v>126</v>
       </c>
-      <c r="Q49" s="10" t="s">
+      <c r="Q49" s="9" t="s">
         <v>113</v>
       </c>
       <c r="R49" t="s">
@@ -6151,39 +6626,39 @@
       </c>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B50" t="s">
         <v>135</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E50" s="11"/>
-      <c r="F50" s="8" t="s">
+      <c r="E50" s="10"/>
+      <c r="F50" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G50" s="8" t="s">
+      <c r="G50" s="7" t="s">
         <v>145</v>
       </c>
       <c r="H50" t="s">
         <v>152</v>
       </c>
-      <c r="I50" s="8" t="s">
+      <c r="I50" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="J50" s="9" t="s">
+      <c r="J50" s="8" t="s">
         <v>156</v>
       </c>
       <c r="K50" t="s">
         <v>83</v>
       </c>
-      <c r="N50" s="5"/>
-      <c r="Q50" s="10"/>
+      <c r="N50" s="4"/>
+      <c r="Q50" s="9"/>
       <c r="R50" t="s">
         <v>86</v>
       </c>
@@ -6201,39 +6676,39 @@
       </c>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B51" t="s">
         <v>135</v>
       </c>
-      <c r="C51" s="26" t="s">
+      <c r="C51" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E51" s="11"/>
-      <c r="F51" s="8" t="s">
+      <c r="E51" s="10"/>
+      <c r="F51" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G51" s="8" t="s">
+      <c r="G51" s="7" t="s">
         <v>145</v>
       </c>
       <c r="H51" t="s">
         <v>152</v>
       </c>
-      <c r="I51" s="8" t="s">
+      <c r="I51" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="J51" s="9" t="s">
+      <c r="J51" s="8" t="s">
         <v>118</v>
       </c>
       <c r="K51" t="s">
         <v>93</v>
       </c>
-      <c r="N51" s="5"/>
-      <c r="Q51" s="10"/>
+      <c r="N51" s="4"/>
+      <c r="Q51" s="9"/>
       <c r="R51" t="s">
         <v>119</v>
       </c>
@@ -6263,30 +6738,30 @@
       </c>
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B52" t="s">
         <v>136</v>
       </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7" t="s">
+      <c r="C52" s="6"/>
+      <c r="D52" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E52" s="11"/>
-      <c r="F52" s="8" t="s">
+      <c r="E52" s="10"/>
+      <c r="F52" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G52" s="8" t="s">
+      <c r="G52" s="7" t="s">
         <v>145</v>
       </c>
       <c r="H52" t="s">
         <v>153</v>
       </c>
-      <c r="I52" s="8" t="s">
+      <c r="I52" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="J52" s="9" t="s">
+      <c r="J52" s="8" t="s">
         <v>104</v>
       </c>
       <c r="K52" t="s">
@@ -6298,11 +6773,11 @@
       <c r="M52" t="s">
         <v>122</v>
       </c>
-      <c r="N52" s="5"/>
+      <c r="N52" s="4"/>
       <c r="P52" t="s">
         <v>136</v>
       </c>
-      <c r="Q52" s="10" t="s">
+      <c r="Q52" s="9" t="s">
         <v>153</v>
       </c>
       <c r="R52" t="s">
@@ -6346,30 +6821,30 @@
       </c>
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B53" t="s">
         <v>136</v>
       </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7" t="s">
+      <c r="C53" s="6"/>
+      <c r="D53" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E53" s="11"/>
-      <c r="F53" s="8" t="s">
+      <c r="E53" s="10"/>
+      <c r="F53" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G53" s="8" t="s">
+      <c r="G53" s="7" t="s">
         <v>145</v>
       </c>
       <c r="H53" t="s">
         <v>153</v>
       </c>
-      <c r="I53" s="8" t="s">
+      <c r="I53" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="J53" s="9" t="s">
+      <c r="J53" s="8" t="s">
         <v>105</v>
       </c>
       <c r="K53" t="s">
@@ -6381,11 +6856,11 @@
       <c r="M53" t="s">
         <v>124</v>
       </c>
-      <c r="N53" s="5"/>
+      <c r="N53" s="4"/>
       <c r="P53" t="s">
         <v>136</v>
       </c>
-      <c r="Q53" s="10" t="s">
+      <c r="Q53" s="9" t="s">
         <v>162</v>
       </c>
       <c r="R53" t="s">
@@ -6432,30 +6907,32 @@
       </c>
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B54" t="s">
         <v>136</v>
       </c>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7" t="s">
+      <c r="C54" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="D54" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E54" s="11"/>
-      <c r="F54" s="8" t="s">
+      <c r="E54" s="10"/>
+      <c r="F54" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G54" s="8" t="s">
+      <c r="G54" s="7" t="s">
         <v>145</v>
       </c>
       <c r="H54" t="s">
         <v>153</v>
       </c>
-      <c r="I54" s="8" t="s">
+      <c r="I54" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="J54" s="9" t="s">
+      <c r="J54" s="8" t="s">
         <v>106</v>
       </c>
       <c r="K54" t="s">
@@ -6467,11 +6944,11 @@
       <c r="M54" t="s">
         <v>106</v>
       </c>
-      <c r="N54" s="5"/>
+      <c r="N54" s="4"/>
       <c r="P54" t="s">
         <v>24</v>
       </c>
-      <c r="Q54" s="10" t="s">
+      <c r="Q54" s="9" t="s">
         <v>112</v>
       </c>
       <c r="R54" t="s">
@@ -6521,39 +6998,39 @@
       </c>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B55" t="s">
         <v>136</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E55" s="11"/>
-      <c r="F55" s="8" t="s">
+      <c r="E55" s="10"/>
+      <c r="F55" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G55" s="8" t="s">
+      <c r="G55" s="7" t="s">
         <v>145</v>
       </c>
       <c r="H55" t="s">
         <v>153</v>
       </c>
-      <c r="I55" s="8" t="s">
+      <c r="I55" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="J55" s="9" t="s">
+      <c r="J55" s="8" t="s">
         <v>107</v>
       </c>
       <c r="K55" t="s">
         <v>93</v>
       </c>
-      <c r="N55" s="5"/>
-      <c r="Q55" s="10"/>
+      <c r="N55" s="4"/>
+      <c r="Q55" s="9"/>
       <c r="R55" t="s">
         <v>86</v>
       </c>
@@ -6598,32 +7075,32 @@
       </c>
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B56" t="s">
         <v>136</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E56" s="11"/>
-      <c r="F56" s="8" t="s">
+      <c r="E56" s="10"/>
+      <c r="F56" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G56" s="8" t="s">
+      <c r="G56" s="7" t="s">
         <v>145</v>
       </c>
       <c r="H56" t="s">
         <v>153</v>
       </c>
-      <c r="I56" s="8" t="s">
+      <c r="I56" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="J56" s="9" t="s">
+      <c r="J56" s="8" t="s">
         <v>108</v>
       </c>
       <c r="K56" t="s">
@@ -6635,11 +7112,11 @@
       <c r="M56" t="s">
         <v>97</v>
       </c>
-      <c r="N56" s="5"/>
+      <c r="N56" s="4"/>
       <c r="P56" t="s">
         <v>126</v>
       </c>
-      <c r="Q56" s="10" t="s">
+      <c r="Q56" s="9" t="s">
         <v>113</v>
       </c>
       <c r="R56" t="s">
@@ -6686,39 +7163,39 @@
       </c>
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B57" t="s">
         <v>136</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D57" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E57" s="11"/>
-      <c r="F57" s="8" t="s">
+      <c r="E57" s="10"/>
+      <c r="F57" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G57" s="8" t="s">
+      <c r="G57" s="7" t="s">
         <v>145</v>
       </c>
       <c r="H57" t="s">
         <v>153</v>
       </c>
-      <c r="I57" s="8" t="s">
+      <c r="I57" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="J57" s="9" t="s">
+      <c r="J57" s="8" t="s">
         <v>109</v>
       </c>
       <c r="K57" t="s">
         <v>93</v>
       </c>
-      <c r="N57" s="5"/>
-      <c r="Q57" s="10"/>
+      <c r="N57" s="4"/>
+      <c r="Q57" s="9"/>
       <c r="R57" t="s">
         <v>86</v>
       </c>
@@ -6757,39 +7234,39 @@
       </c>
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B58" t="s">
         <v>136</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E58" s="11"/>
-      <c r="F58" s="8" t="s">
+      <c r="E58" s="10"/>
+      <c r="F58" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G58" s="8" t="s">
+      <c r="G58" s="7" t="s">
         <v>145</v>
       </c>
       <c r="H58" t="s">
         <v>153</v>
       </c>
-      <c r="I58" s="8" t="s">
+      <c r="I58" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="J58" s="9" t="s">
+      <c r="J58" s="8" t="s">
         <v>110</v>
       </c>
       <c r="K58" t="s">
         <v>93</v>
       </c>
-      <c r="N58" s="5"/>
-      <c r="Q58" s="10"/>
+      <c r="N58" s="4"/>
+      <c r="Q58" s="9"/>
       <c r="R58" t="s">
         <v>86</v>
       </c>
@@ -6828,32 +7305,32 @@
       </c>
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B59" t="s">
         <v>136</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D59" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E59" s="11"/>
-      <c r="F59" s="8" t="s">
+      <c r="E59" s="10"/>
+      <c r="F59" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G59" s="8" t="s">
+      <c r="G59" s="7" t="s">
         <v>145</v>
       </c>
       <c r="H59" t="s">
         <v>153</v>
       </c>
-      <c r="I59" s="8" t="s">
+      <c r="I59" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="J59" s="9" t="s">
+      <c r="J59" s="8" t="s">
         <v>114</v>
       </c>
       <c r="K59" t="s">
@@ -6865,11 +7342,11 @@
       <c r="M59" t="s">
         <v>97</v>
       </c>
-      <c r="N59" s="5"/>
+      <c r="N59" s="4"/>
       <c r="P59" t="s">
         <v>126</v>
       </c>
-      <c r="Q59" s="10" t="s">
+      <c r="Q59" s="9" t="s">
         <v>113</v>
       </c>
       <c r="R59" t="s">
@@ -6904,39 +7381,39 @@
       </c>
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B60" t="s">
         <v>136</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D60" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E60" s="11"/>
-      <c r="F60" s="8" t="s">
+      <c r="E60" s="10"/>
+      <c r="F60" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G60" s="8" t="s">
+      <c r="G60" s="7" t="s">
         <v>145</v>
       </c>
       <c r="H60" t="s">
         <v>153</v>
       </c>
-      <c r="I60" s="8" t="s">
+      <c r="I60" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="J60" s="9" t="s">
+      <c r="J60" s="8" t="s">
         <v>156</v>
       </c>
       <c r="K60" t="s">
         <v>83</v>
       </c>
-      <c r="N60" s="5"/>
-      <c r="Q60" s="10"/>
+      <c r="N60" s="4"/>
+      <c r="Q60" s="9"/>
       <c r="R60" t="s">
         <v>86</v>
       </c>
@@ -6954,39 +7431,39 @@
       </c>
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B61" t="s">
         <v>136</v>
       </c>
-      <c r="C61" s="26" t="s">
+      <c r="C61" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E61" s="11"/>
-      <c r="F61" s="8" t="s">
+      <c r="E61" s="10"/>
+      <c r="F61" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G61" s="8" t="s">
+      <c r="G61" s="7" t="s">
         <v>145</v>
       </c>
       <c r="H61" t="s">
         <v>153</v>
       </c>
-      <c r="I61" s="8" t="s">
+      <c r="I61" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="J61" s="9" t="s">
+      <c r="J61" s="8" t="s">
         <v>118</v>
       </c>
       <c r="K61" t="s">
         <v>93</v>
       </c>
-      <c r="N61" s="5"/>
-      <c r="Q61" s="10"/>
+      <c r="N61" s="4"/>
+      <c r="Q61" s="9"/>
       <c r="R61" t="s">
         <v>119</v>
       </c>
@@ -7104,12 +7581,30 @@
     <hyperlink ref="C31" r:id="rId83" xr:uid="{C8D6CC24-90DA-4AF3-9D43-5E5BBC9E0BB3}"/>
     <hyperlink ref="C41" r:id="rId84" xr:uid="{61A31153-DC6B-429C-81E8-807C3A37EB09}"/>
     <hyperlink ref="C51" r:id="rId85" xr:uid="{6A06A4F2-150A-4CE6-8A0A-83D8DD606621}"/>
+    <hyperlink ref="C4" r:id="rId86" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC25372&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896542833%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=4vZ1BHmFQU843PBlUz7GUmPeqDXM3OIxiJBsjXMJOhs%3D&amp;reserved=0" xr:uid="{0FFDA8FB-79AE-47B1-A075-F5D693C617C5}"/>
+    <hyperlink ref="C14" r:id="rId87" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC25372&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896542833%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=4vZ1BHmFQU843PBlUz7GUmPeqDXM3OIxiJBsjXMJOhs%3D&amp;reserved=0" xr:uid="{414551D8-F8F2-4AD1-B300-96CD1A8B9B18}"/>
+    <hyperlink ref="C24" r:id="rId88" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC25372&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896542833%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=4vZ1BHmFQU843PBlUz7GUmPeqDXM3OIxiJBsjXMJOhs%3D&amp;reserved=0" xr:uid="{2F5C725C-941C-41AE-ACFE-28426B94707F}"/>
+    <hyperlink ref="C34" r:id="rId89" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC25372&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896542833%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=4vZ1BHmFQU843PBlUz7GUmPeqDXM3OIxiJBsjXMJOhs%3D&amp;reserved=0" xr:uid="{6CC26C0C-628B-43BB-9A7B-3B00D306B695}"/>
+    <hyperlink ref="C44" r:id="rId90" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC25372&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896542833%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=4vZ1BHmFQU843PBlUz7GUmPeqDXM3OIxiJBsjXMJOhs%3D&amp;reserved=0" xr:uid="{3DAE7CA3-7981-49D4-9E0E-D310D80C62B8}"/>
+    <hyperlink ref="C54" r:id="rId91" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC25372&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896542833%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=4vZ1BHmFQU843PBlUz7GUmPeqDXM3OIxiJBsjXMJOhs%3D&amp;reserved=0" xr:uid="{5B21695E-CF4B-4B22-887B-BB4CAC422B62}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Description0 xmlns="3dc215b4-4765-4137-95ef-e24fb8216673">Data and Metadata documentation will explain structure and content any QC manipulations that have been done to the data.</Description0>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3dc215b4-4765-4137-95ef-e24fb8216673">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EA3DD6FD0640724CAC6A104AA4040E53" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="115dd23f2b72febc1d2fc1b60a8090db">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3dc215b4-4765-4137-95ef-e24fb8216673" xmlns:ns3="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="43aaa9d63816c92389865776c2b79fa6" ns2:_="" ns3:_="">
     <xsd:import namespace="3dc215b4-4765-4137-95ef-e24fb8216673"/>
@@ -7366,18 +7861,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Description0 xmlns="3dc215b4-4765-4137-95ef-e24fb8216673">Data and Metadata documentation will explain structure and content any QC manipulations that have been done to the data.</Description0>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3dc215b4-4765-4137-95ef-e24fb8216673">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -7388,6 +7871,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E56C0EC-289B-41C6-9A91-258C52A8C3F5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3dc215b4-4765-4137-95ef-e24fb8216673"/>
+    <ds:schemaRef ds:uri="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A583703A-1248-4F5E-A7B5-5A620887A948}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7406,17 +7900,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E56C0EC-289B-41C6-9A91-258C52A8C3F5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3dc215b4-4765-4137-95ef-e24fb8216673"/>
-    <ds:schemaRef ds:uri="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{639AA1C1-D174-4141-87F9-3D9FF5B31776}">
   <ds:schemaRefs>
